--- a/data/data_split_6.xlsx
+++ b/data/data_split_6.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\IT4930-KHDL\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DFECDB-1337-4375-ADCA-504653D31585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1072">
   <si>
     <t>title</t>
   </si>
@@ -3448,12 +3454,27 @@
   <si>
     <t>Mình đặt bản 32gb, màu gold; bên bán hàng giao màu graphite mà không hỏi ý kiến bên mua. Dịch vụ quá tệ.</t>
   </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Packing</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3478,7 +3499,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3501,13 +3522,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3516,13 +3549,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3560,7 +3601,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3594,6 +3635,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3628,9 +3670,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3803,14 +3846,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3820,8 +3865,23 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>9500</v>
       </c>
@@ -3835,7 +3895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>9501</v>
       </c>
@@ -3849,7 +3909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>9502</v>
       </c>
@@ -3863,7 +3923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>9503</v>
       </c>
@@ -3877,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>9504</v>
       </c>
@@ -3891,7 +3951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>9505</v>
       </c>
@@ -3905,7 +3965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>9506</v>
       </c>
@@ -3919,7 +3979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>9507</v>
       </c>
@@ -3933,7 +3993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9508</v>
       </c>
@@ -3947,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9509</v>
       </c>
@@ -3961,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>9510</v>
       </c>
@@ -3975,7 +4035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>9511</v>
       </c>
@@ -3989,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>9512</v>
       </c>
@@ -4003,7 +4063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>9513</v>
       </c>
@@ -4017,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>9514</v>
       </c>
@@ -4031,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>9515</v>
       </c>
@@ -4045,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>9516</v>
       </c>
@@ -4059,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>9517</v>
       </c>
@@ -4073,7 +4133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>9518</v>
       </c>
@@ -4087,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>9519</v>
       </c>
@@ -4101,7 +4161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>9520</v>
       </c>
@@ -4115,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>9521</v>
       </c>
@@ -4129,7 +4189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>9522</v>
       </c>
@@ -4143,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>9523</v>
       </c>
@@ -4157,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>9524</v>
       </c>
@@ -4171,7 +4231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>9525</v>
       </c>
@@ -4185,7 +4245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>9526</v>
       </c>
@@ -4199,7 +4259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>9527</v>
       </c>
@@ -4213,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>9528</v>
       </c>
@@ -4227,7 +4287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>9529</v>
       </c>
@@ -4241,7 +4301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>9530</v>
       </c>
@@ -4255,7 +4315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>9531</v>
       </c>
@@ -4269,7 +4329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>9532</v>
       </c>
@@ -4283,7 +4343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>9533</v>
       </c>
@@ -4297,7 +4357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>9534</v>
       </c>
@@ -4311,7 +4371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>9535</v>
       </c>
@@ -4325,7 +4385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>9536</v>
       </c>
@@ -4339,7 +4399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>9537</v>
       </c>
@@ -4353,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>9538</v>
       </c>
@@ -4367,7 +4427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>9539</v>
       </c>
@@ -4381,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>9540</v>
       </c>
@@ -4395,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>9541</v>
       </c>
@@ -4409,7 +4469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>9542</v>
       </c>
@@ -4423,7 +4483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>9543</v>
       </c>
@@ -4437,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>9544</v>
       </c>
@@ -4451,7 +4511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>9545</v>
       </c>
@@ -4465,7 +4525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>9546</v>
       </c>
@@ -4479,7 +4539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>9547</v>
       </c>
@@ -4493,7 +4553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>9548</v>
       </c>
@@ -4507,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>9549</v>
       </c>
@@ -4521,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>9550</v>
       </c>
@@ -4535,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>9551</v>
       </c>
@@ -4549,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>9552</v>
       </c>
@@ -4563,7 +4623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>9553</v>
       </c>
@@ -4577,7 +4637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>9554</v>
       </c>
@@ -4591,7 +4651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>9555</v>
       </c>
@@ -4605,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>9556</v>
       </c>
@@ -4619,7 +4679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>9557</v>
       </c>
@@ -4633,7 +4693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>9558</v>
       </c>
@@ -4647,7 +4707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>9559</v>
       </c>
@@ -4661,7 +4721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>9560</v>
       </c>
@@ -4675,7 +4735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>9561</v>
       </c>
@@ -4689,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>9562</v>
       </c>
@@ -4703,7 +4763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>9563</v>
       </c>
@@ -4717,7 +4777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>9564</v>
       </c>
@@ -4731,7 +4791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>9565</v>
       </c>
@@ -4745,7 +4805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>9566</v>
       </c>
@@ -4759,7 +4819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>9567</v>
       </c>
@@ -4773,7 +4833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>9568</v>
       </c>
@@ -4787,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>9569</v>
       </c>
@@ -4801,7 +4861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>9570</v>
       </c>
@@ -4815,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>9571</v>
       </c>
@@ -4829,7 +4889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>9572</v>
       </c>
@@ -4843,7 +4903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>9573</v>
       </c>
@@ -4857,7 +4917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>9574</v>
       </c>
@@ -4871,7 +4931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>9575</v>
       </c>
@@ -4885,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>9576</v>
       </c>
@@ -4899,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>9577</v>
       </c>
@@ -4913,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>9578</v>
       </c>
@@ -4927,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>9579</v>
       </c>
@@ -4941,7 +5001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>9580</v>
       </c>
@@ -4955,7 +5015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>9581</v>
       </c>
@@ -4969,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>9582</v>
       </c>
@@ -4983,7 +5043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>9583</v>
       </c>
@@ -4997,7 +5057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>9584</v>
       </c>
@@ -5011,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>9585</v>
       </c>
@@ -5025,7 +5085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>9586</v>
       </c>
@@ -5039,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>9587</v>
       </c>
@@ -5053,7 +5113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>9588</v>
       </c>
@@ -5067,7 +5127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>9589</v>
       </c>
@@ -5081,7 +5141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>9590</v>
       </c>
@@ -5095,7 +5155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>9591</v>
       </c>
@@ -5109,7 +5169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>9592</v>
       </c>
@@ -5123,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>9593</v>
       </c>
@@ -5137,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>9594</v>
       </c>
@@ -5151,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>9595</v>
       </c>
@@ -5165,7 +5225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>9596</v>
       </c>
@@ -5179,7 +5239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>9597</v>
       </c>
@@ -5193,7 +5253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>9598</v>
       </c>
@@ -5207,7 +5267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>9599</v>
       </c>
@@ -5221,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>9600</v>
       </c>
@@ -5235,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>9601</v>
       </c>
@@ -5249,7 +5309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>9602</v>
       </c>
@@ -5263,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>9603</v>
       </c>
@@ -5277,7 +5337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>9604</v>
       </c>
@@ -5291,7 +5351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>9605</v>
       </c>
@@ -5305,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>9606</v>
       </c>
@@ -5319,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>9607</v>
       </c>
@@ -5333,7 +5393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>9608</v>
       </c>
@@ -5347,7 +5407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>9609</v>
       </c>
@@ -5361,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>9610</v>
       </c>
@@ -5375,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>9611</v>
       </c>
@@ -5389,7 +5449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>9612</v>
       </c>
@@ -5403,7 +5463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>9613</v>
       </c>
@@ -5417,7 +5477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>9614</v>
       </c>
@@ -5431,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>9615</v>
       </c>
@@ -5445,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>9616</v>
       </c>
@@ -5459,7 +5519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>9617</v>
       </c>
@@ -5473,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>9618</v>
       </c>
@@ -5487,7 +5547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>9619</v>
       </c>
@@ -5501,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>9620</v>
       </c>
@@ -5515,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>9621</v>
       </c>
@@ -5529,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>9622</v>
       </c>
@@ -5543,7 +5603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>9623</v>
       </c>
@@ -5557,7 +5617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>9624</v>
       </c>
@@ -5571,7 +5631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>9625</v>
       </c>
@@ -5585,7 +5645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>9626</v>
       </c>
@@ -5599,7 +5659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>9627</v>
       </c>
@@ -5613,7 +5673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>9628</v>
       </c>
@@ -5627,7 +5687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>9629</v>
       </c>
@@ -5641,7 +5701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>9630</v>
       </c>
@@ -5655,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>9631</v>
       </c>
@@ -5669,7 +5729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>9632</v>
       </c>
@@ -5683,7 +5743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>9633</v>
       </c>
@@ -5697,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>9634</v>
       </c>
@@ -5711,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>9635</v>
       </c>
@@ -5725,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>9636</v>
       </c>
@@ -5739,7 +5799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>9637</v>
       </c>
@@ -5753,7 +5813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>9638</v>
       </c>
@@ -5767,7 +5827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>9639</v>
       </c>
@@ -5781,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>9640</v>
       </c>
@@ -5795,7 +5855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>9641</v>
       </c>
@@ -5809,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>9642</v>
       </c>
@@ -5823,7 +5883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>9643</v>
       </c>
@@ -5837,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>9644</v>
       </c>
@@ -5851,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>9645</v>
       </c>
@@ -5865,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>9646</v>
       </c>
@@ -5879,7 +5939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>9647</v>
       </c>
@@ -5893,7 +5953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>9648</v>
       </c>
@@ -5907,7 +5967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>9649</v>
       </c>
@@ -5921,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>9650</v>
       </c>
@@ -5935,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>9651</v>
       </c>
@@ -5949,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>9652</v>
       </c>
@@ -5963,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>9653</v>
       </c>
@@ -5977,7 +6037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>9654</v>
       </c>
@@ -5991,7 +6051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>9655</v>
       </c>
@@ -6005,7 +6065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>9656</v>
       </c>
@@ -6019,7 +6079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>9657</v>
       </c>
@@ -6033,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>9658</v>
       </c>
@@ -6047,7 +6107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>9659</v>
       </c>
@@ -6061,7 +6121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>9660</v>
       </c>
@@ -6075,7 +6135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>9661</v>
       </c>
@@ -6089,7 +6149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>9662</v>
       </c>
@@ -6103,7 +6163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>9663</v>
       </c>
@@ -6117,7 +6177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>9664</v>
       </c>
@@ -6131,7 +6191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>9665</v>
       </c>
@@ -6145,7 +6205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>9666</v>
       </c>
@@ -6159,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>9667</v>
       </c>
@@ -6173,7 +6233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>9668</v>
       </c>
@@ -6187,7 +6247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>9669</v>
       </c>
@@ -6201,7 +6261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>9670</v>
       </c>
@@ -6215,7 +6275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>9671</v>
       </c>
@@ -6229,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>9672</v>
       </c>
@@ -6243,7 +6303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>9673</v>
       </c>
@@ -6257,7 +6317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>9674</v>
       </c>
@@ -6271,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>9675</v>
       </c>
@@ -6285,7 +6345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>9676</v>
       </c>
@@ -6299,7 +6359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>9677</v>
       </c>
@@ -6313,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>9678</v>
       </c>
@@ -6327,7 +6387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>9679</v>
       </c>
@@ -6341,7 +6401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>9680</v>
       </c>
@@ -6355,7 +6415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>9681</v>
       </c>
@@ -6369,7 +6429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>9682</v>
       </c>
@@ -6383,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>9683</v>
       </c>
@@ -6397,7 +6457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>9684</v>
       </c>
@@ -6411,7 +6471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>9685</v>
       </c>
@@ -6425,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>9686</v>
       </c>
@@ -6439,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>9687</v>
       </c>
@@ -6453,7 +6513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>9688</v>
       </c>
@@ -6467,7 +6527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>9689</v>
       </c>
@@ -6481,7 +6541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>9690</v>
       </c>
@@ -6495,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>9691</v>
       </c>
@@ -6509,7 +6569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>9692</v>
       </c>
@@ -6523,7 +6583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>9693</v>
       </c>
@@ -6537,7 +6597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>9694</v>
       </c>
@@ -6551,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>9695</v>
       </c>
@@ -6565,7 +6625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>9696</v>
       </c>
@@ -6579,7 +6639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>9697</v>
       </c>
@@ -6593,7 +6653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>9698</v>
       </c>
@@ -6607,7 +6667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>9699</v>
       </c>
@@ -6621,7 +6681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>9700</v>
       </c>
@@ -6635,7 +6695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>9701</v>
       </c>
@@ -6649,7 +6709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>9702</v>
       </c>
@@ -6663,7 +6723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>9703</v>
       </c>
@@ -6677,7 +6737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>9704</v>
       </c>
@@ -6691,7 +6751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>9705</v>
       </c>
@@ -6705,7 +6765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>9706</v>
       </c>
@@ -6719,7 +6779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>9707</v>
       </c>
@@ -6733,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>9708</v>
       </c>
@@ -6747,7 +6807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>9709</v>
       </c>
@@ -6761,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>9710</v>
       </c>
@@ -6775,7 +6835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>9711</v>
       </c>
@@ -6789,7 +6849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>9712</v>
       </c>
@@ -6803,7 +6863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>9713</v>
       </c>
@@ -6817,7 +6877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>9714</v>
       </c>
@@ -6831,7 +6891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>9715</v>
       </c>
@@ -6845,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>9716</v>
       </c>
@@ -6859,7 +6919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>9717</v>
       </c>
@@ -6873,7 +6933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>9718</v>
       </c>
@@ -6887,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>9719</v>
       </c>
@@ -6901,7 +6961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>9720</v>
       </c>
@@ -6915,7 +6975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>9721</v>
       </c>
@@ -6929,7 +6989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>9722</v>
       </c>
@@ -6943,7 +7003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>9723</v>
       </c>
@@ -6957,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>9724</v>
       </c>
@@ -6971,7 +7031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>9725</v>
       </c>
@@ -6985,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>9726</v>
       </c>
@@ -6999,7 +7059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>9727</v>
       </c>
@@ -7013,7 +7073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>9728</v>
       </c>
@@ -7027,7 +7087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>9729</v>
       </c>
@@ -7041,7 +7101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>9730</v>
       </c>
@@ -7055,7 +7115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>9731</v>
       </c>
@@ -7069,7 +7129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>9732</v>
       </c>
@@ -7083,7 +7143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>9733</v>
       </c>
@@ -7097,7 +7157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>9734</v>
       </c>
@@ -7111,7 +7171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>9735</v>
       </c>
@@ -7125,7 +7185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>9736</v>
       </c>
@@ -7139,7 +7199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>9737</v>
       </c>
@@ -7153,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>9738</v>
       </c>
@@ -7167,7 +7227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>9739</v>
       </c>
@@ -7181,7 +7241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>9740</v>
       </c>
@@ -7195,7 +7255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>9741</v>
       </c>
@@ -7209,7 +7269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>9742</v>
       </c>
@@ -7223,7 +7283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>9743</v>
       </c>
@@ -7237,7 +7297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>9744</v>
       </c>
@@ -7251,7 +7311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>9745</v>
       </c>
@@ -7265,7 +7325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>9746</v>
       </c>
@@ -7279,7 +7339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>9747</v>
       </c>
@@ -7293,7 +7353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>9748</v>
       </c>
@@ -7307,7 +7367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>9749</v>
       </c>
@@ -7321,7 +7381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>9750</v>
       </c>
@@ -7335,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>9751</v>
       </c>
@@ -7349,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>9752</v>
       </c>
@@ -7363,7 +7423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>9753</v>
       </c>
@@ -7377,7 +7437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>9754</v>
       </c>
@@ -7391,7 +7451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>9755</v>
       </c>
@@ -7405,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>9756</v>
       </c>
@@ -7419,7 +7479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>9757</v>
       </c>
@@ -7433,7 +7493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>9758</v>
       </c>
@@ -7447,7 +7507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>9759</v>
       </c>
@@ -7461,7 +7521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>9760</v>
       </c>
@@ -7475,7 +7535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>9761</v>
       </c>
@@ -7489,7 +7549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>9762</v>
       </c>
@@ -7503,7 +7563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>9763</v>
       </c>
@@ -7517,7 +7577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>9764</v>
       </c>
@@ -7531,7 +7591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>9765</v>
       </c>
@@ -7545,7 +7605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>9766</v>
       </c>
@@ -7559,7 +7619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>9767</v>
       </c>
@@ -7573,7 +7633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>9768</v>
       </c>
@@ -7587,7 +7647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>9769</v>
       </c>
@@ -7601,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>9770</v>
       </c>
@@ -7615,7 +7675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>9771</v>
       </c>
@@ -7629,7 +7689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>9772</v>
       </c>
@@ -7643,7 +7703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>9773</v>
       </c>
@@ -7657,7 +7717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>9774</v>
       </c>
@@ -7671,7 +7731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>9775</v>
       </c>
@@ -7685,7 +7745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>9776</v>
       </c>
@@ -7699,7 +7759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>9777</v>
       </c>
@@ -7713,7 +7773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>9778</v>
       </c>
@@ -7727,7 +7787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>9779</v>
       </c>
@@ -7741,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>9780</v>
       </c>
@@ -7755,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>9781</v>
       </c>
@@ -7769,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>9782</v>
       </c>
@@ -7783,7 +7843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>9783</v>
       </c>
@@ -7797,7 +7857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>9784</v>
       </c>
@@ -7811,7 +7871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>9785</v>
       </c>
@@ -7825,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>9786</v>
       </c>
@@ -7839,7 +7899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>9787</v>
       </c>
@@ -7853,7 +7913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>9788</v>
       </c>
@@ -7867,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>9789</v>
       </c>
@@ -7881,7 +7941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>9790</v>
       </c>
@@ -7895,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>9791</v>
       </c>
@@ -7909,7 +7969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>9792</v>
       </c>
@@ -7923,7 +7983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>9793</v>
       </c>
@@ -7937,7 +7997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>9794</v>
       </c>
@@ -7951,7 +8011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>9795</v>
       </c>
@@ -7965,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>9796</v>
       </c>
@@ -7979,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>9797</v>
       </c>
@@ -7993,7 +8053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>9798</v>
       </c>
@@ -8007,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>9799</v>
       </c>
@@ -8021,7 +8081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>9800</v>
       </c>
@@ -8035,7 +8095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>9801</v>
       </c>
@@ -8049,7 +8109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>9802</v>
       </c>
@@ -8063,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>9803</v>
       </c>
@@ -8077,7 +8137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>9804</v>
       </c>
@@ -8091,7 +8151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>9805</v>
       </c>
@@ -8105,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>9806</v>
       </c>
@@ -8119,7 +8179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>9807</v>
       </c>
@@ -8133,7 +8193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>9808</v>
       </c>
@@ -8147,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>9809</v>
       </c>
@@ -8161,7 +8221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>9810</v>
       </c>
@@ -8175,7 +8235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>9811</v>
       </c>
@@ -8189,7 +8249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>9812</v>
       </c>
@@ -8203,7 +8263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>9813</v>
       </c>
@@ -8217,7 +8277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>9814</v>
       </c>
@@ -8231,7 +8291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>9815</v>
       </c>
@@ -8245,7 +8305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>9816</v>
       </c>
@@ -8259,7 +8319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>9817</v>
       </c>
@@ -8273,7 +8333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>9818</v>
       </c>
@@ -8287,7 +8347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>9819</v>
       </c>
@@ -8301,7 +8361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>9820</v>
       </c>
@@ -8315,7 +8375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>9821</v>
       </c>
@@ -8329,7 +8389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>9822</v>
       </c>
@@ -8343,7 +8403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>9823</v>
       </c>
@@ -8357,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>9824</v>
       </c>
@@ -8371,7 +8431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>9825</v>
       </c>
@@ -8385,7 +8445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>9826</v>
       </c>
@@ -8399,7 +8459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>9827</v>
       </c>
@@ -8413,7 +8473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>9828</v>
       </c>
@@ -8427,7 +8487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>9829</v>
       </c>
@@ -8441,7 +8501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>9830</v>
       </c>
@@ -8455,7 +8515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>9831</v>
       </c>
@@ -8469,7 +8529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>9832</v>
       </c>
@@ -8483,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>9833</v>
       </c>
@@ -8497,7 +8557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>9834</v>
       </c>
@@ -8511,7 +8571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>9835</v>
       </c>
@@ -8525,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>9836</v>
       </c>
@@ -8539,7 +8599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>9837</v>
       </c>
@@ -8553,7 +8613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>9838</v>
       </c>
@@ -8567,7 +8627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>9839</v>
       </c>
@@ -8581,7 +8641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>9840</v>
       </c>
@@ -8595,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>9841</v>
       </c>
@@ -8609,7 +8669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>9842</v>
       </c>
@@ -8623,7 +8683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>9843</v>
       </c>
@@ -8637,7 +8697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>9844</v>
       </c>
@@ -8651,7 +8711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>9845</v>
       </c>
@@ -8665,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>9846</v>
       </c>
@@ -8679,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>9847</v>
       </c>
@@ -8693,7 +8753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>9848</v>
       </c>
@@ -8707,7 +8767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>9849</v>
       </c>
@@ -8721,7 +8781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>9850</v>
       </c>
@@ -8735,7 +8795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>9851</v>
       </c>
@@ -8749,7 +8809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>9852</v>
       </c>
@@ -8763,7 +8823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>9853</v>
       </c>
@@ -8777,7 +8837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>9854</v>
       </c>
@@ -8791,7 +8851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>9855</v>
       </c>
@@ -8805,7 +8865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>9856</v>
       </c>
@@ -8819,7 +8879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>9857</v>
       </c>
@@ -8833,7 +8893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>9858</v>
       </c>
@@ -8847,7 +8907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>9859</v>
       </c>
@@ -8861,7 +8921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>9860</v>
       </c>
@@ -8875,7 +8935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>9861</v>
       </c>
@@ -8889,7 +8949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>9862</v>
       </c>
@@ -8903,7 +8963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>9863</v>
       </c>
@@ -8917,7 +8977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>9864</v>
       </c>
@@ -8931,7 +8991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>9865</v>
       </c>
@@ -8945,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>9866</v>
       </c>
@@ -8959,7 +9019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>9867</v>
       </c>
@@ -8973,7 +9033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>9868</v>
       </c>
@@ -8987,7 +9047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>9869</v>
       </c>
@@ -9001,7 +9061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>9870</v>
       </c>
@@ -9015,7 +9075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>9871</v>
       </c>
@@ -9029,7 +9089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>9872</v>
       </c>
@@ -9043,7 +9103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>9873</v>
       </c>
@@ -9057,7 +9117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>9874</v>
       </c>
@@ -9071,7 +9131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>9875</v>
       </c>
@@ -9085,7 +9145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>9876</v>
       </c>
@@ -9099,7 +9159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>9877</v>
       </c>
@@ -9113,7 +9173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>9878</v>
       </c>
@@ -9127,7 +9187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>9879</v>
       </c>
@@ -9141,7 +9201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>9880</v>
       </c>
@@ -9155,7 +9215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>9881</v>
       </c>
@@ -9169,7 +9229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>9882</v>
       </c>
@@ -9183,7 +9243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>9883</v>
       </c>
@@ -9197,7 +9257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>9884</v>
       </c>
@@ -9211,7 +9271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>9885</v>
       </c>
@@ -9225,7 +9285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>9886</v>
       </c>
@@ -9239,7 +9299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>9887</v>
       </c>
@@ -9253,7 +9313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>9888</v>
       </c>
@@ -9267,7 +9327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>9889</v>
       </c>
@@ -9281,7 +9341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>9890</v>
       </c>
@@ -9295,7 +9355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>9891</v>
       </c>
@@ -9309,7 +9369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>9892</v>
       </c>
@@ -9323,7 +9383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>9893</v>
       </c>
@@ -9337,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>9894</v>
       </c>
@@ -9351,7 +9411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>9895</v>
       </c>
@@ -9365,7 +9425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>9896</v>
       </c>
@@ -9379,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>9897</v>
       </c>
@@ -9393,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>9898</v>
       </c>
@@ -9407,7 +9467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>9899</v>
       </c>
@@ -9421,7 +9481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>9900</v>
       </c>
@@ -9435,7 +9495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>9901</v>
       </c>
@@ -9449,7 +9509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>9902</v>
       </c>
@@ -9463,7 +9523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>9903</v>
       </c>
@@ -9477,7 +9537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>9904</v>
       </c>
@@ -9491,7 +9551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>9905</v>
       </c>
@@ -9505,7 +9565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>9906</v>
       </c>
@@ -9519,7 +9579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>9907</v>
       </c>
@@ -9533,7 +9593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>9908</v>
       </c>
@@ -9547,7 +9607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>9909</v>
       </c>
@@ -9561,7 +9621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>9910</v>
       </c>
@@ -9575,7 +9635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>9911</v>
       </c>
@@ -9589,7 +9649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>9912</v>
       </c>
@@ -9603,7 +9663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>9913</v>
       </c>
@@ -9617,7 +9677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>9914</v>
       </c>
@@ -9631,7 +9691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>9915</v>
       </c>
@@ -9645,7 +9705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>9916</v>
       </c>
@@ -9659,7 +9719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>9917</v>
       </c>
@@ -9673,7 +9733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>9918</v>
       </c>
@@ -9687,7 +9747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>9919</v>
       </c>
@@ -9701,7 +9761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>9920</v>
       </c>
@@ -9715,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>9921</v>
       </c>
@@ -9729,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>9922</v>
       </c>
@@ -9743,7 +9803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>9923</v>
       </c>
@@ -9757,7 +9817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>9924</v>
       </c>
@@ -9771,7 +9831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>9925</v>
       </c>
@@ -9785,7 +9845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>9926</v>
       </c>
@@ -9799,7 +9859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>9927</v>
       </c>
@@ -9813,7 +9873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>9928</v>
       </c>
@@ -9827,7 +9887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>9929</v>
       </c>
@@ -9841,7 +9901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>9930</v>
       </c>
@@ -9855,7 +9915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>9931</v>
       </c>
@@ -9869,7 +9929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>9932</v>
       </c>
@@ -9883,7 +9943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>9933</v>
       </c>
@@ -9897,7 +9957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>9934</v>
       </c>
@@ -9911,7 +9971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>9935</v>
       </c>
@@ -9925,7 +9985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>9936</v>
       </c>
@@ -9939,7 +9999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>9937</v>
       </c>
@@ -9953,7 +10013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>9938</v>
       </c>
@@ -9967,7 +10027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>9939</v>
       </c>
@@ -9981,7 +10041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>9940</v>
       </c>
@@ -9995,7 +10055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>9941</v>
       </c>
@@ -10009,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>9942</v>
       </c>
@@ -10023,7 +10083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>9943</v>
       </c>
@@ -10037,7 +10097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>9944</v>
       </c>
@@ -10051,7 +10111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>9945</v>
       </c>
@@ -10065,7 +10125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>9946</v>
       </c>
@@ -10079,7 +10139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>9947</v>
       </c>
@@ -10093,7 +10153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>9948</v>
       </c>
@@ -10107,7 +10167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>9949</v>
       </c>
@@ -10121,7 +10181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>9950</v>
       </c>
@@ -10135,7 +10195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>9951</v>
       </c>
@@ -10149,7 +10209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>9952</v>
       </c>
@@ -10163,7 +10223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>9953</v>
       </c>
@@ -10177,7 +10237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>9954</v>
       </c>
@@ -10191,7 +10251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>9955</v>
       </c>
@@ -10205,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>9956</v>
       </c>
@@ -10219,7 +10279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>9957</v>
       </c>
@@ -10233,7 +10293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>9958</v>
       </c>
@@ -10247,7 +10307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>9959</v>
       </c>
@@ -10261,7 +10321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>9960</v>
       </c>
@@ -10275,7 +10335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>9961</v>
       </c>
@@ -10289,7 +10349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>9962</v>
       </c>
@@ -10303,7 +10363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>9963</v>
       </c>
@@ -10317,7 +10377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>9964</v>
       </c>
@@ -10331,7 +10391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>9965</v>
       </c>
@@ -10345,7 +10405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>9966</v>
       </c>
@@ -10359,7 +10419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>9967</v>
       </c>
@@ -10373,7 +10433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>9968</v>
       </c>
@@ -10387,7 +10447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>9969</v>
       </c>
@@ -10401,7 +10461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>9970</v>
       </c>
@@ -10415,7 +10475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>9971</v>
       </c>
@@ -10429,7 +10489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>9972</v>
       </c>
@@ -10443,7 +10503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>9973</v>
       </c>
@@ -10457,7 +10517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>9974</v>
       </c>
@@ -10471,7 +10531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>9975</v>
       </c>
@@ -10485,7 +10545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>9976</v>
       </c>
@@ -10499,7 +10559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>9977</v>
       </c>
@@ -10513,7 +10573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>9978</v>
       </c>
@@ -10527,7 +10587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>9979</v>
       </c>
@@ -10541,7 +10601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>9980</v>
       </c>
@@ -10555,7 +10615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>9981</v>
       </c>
@@ -10569,7 +10629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>9982</v>
       </c>
@@ -10583,7 +10643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>9983</v>
       </c>
@@ -10597,7 +10657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>9984</v>
       </c>
@@ -10611,7 +10671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>9985</v>
       </c>
@@ -10625,7 +10685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>9986</v>
       </c>
@@ -10639,7 +10699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>9987</v>
       </c>
@@ -10653,7 +10713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>9988</v>
       </c>
@@ -10667,7 +10727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>9989</v>
       </c>
@@ -10681,7 +10741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>9990</v>
       </c>
@@ -10695,7 +10755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>9991</v>
       </c>
@@ -10709,7 +10769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>9992</v>
       </c>
@@ -10723,7 +10783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>9993</v>
       </c>
@@ -10737,7 +10797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>9994</v>
       </c>
@@ -10751,7 +10811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>9995</v>
       </c>
@@ -10765,7 +10825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>9996</v>
       </c>
@@ -10779,7 +10839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>9997</v>
       </c>
@@ -10793,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>9998</v>
       </c>
@@ -10807,7 +10867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>9999</v>
       </c>
@@ -10821,7 +10881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>10000</v>
       </c>
@@ -10835,7 +10895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>10001</v>
       </c>
@@ -10849,7 +10909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>10002</v>
       </c>
@@ -10863,7 +10923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>10003</v>
       </c>
@@ -10877,7 +10937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>10004</v>
       </c>
@@ -10891,7 +10951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>10005</v>
       </c>
@@ -10905,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>10006</v>
       </c>
@@ -10919,7 +10979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>10007</v>
       </c>
@@ -10933,7 +10993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>10008</v>
       </c>
@@ -10947,7 +11007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>10009</v>
       </c>
@@ -10961,7 +11021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>10010</v>
       </c>
@@ -10975,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>10011</v>
       </c>
@@ -10989,7 +11049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>10012</v>
       </c>
@@ -11003,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>10013</v>
       </c>
@@ -11017,7 +11077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>10014</v>
       </c>
@@ -11031,7 +11091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>10015</v>
       </c>
@@ -11045,7 +11105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>10016</v>
       </c>
@@ -11059,7 +11119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>10017</v>
       </c>
@@ -11073,7 +11133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>10018</v>
       </c>
@@ -11087,7 +11147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>10019</v>
       </c>
@@ -11101,7 +11161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>10020</v>
       </c>
@@ -11115,7 +11175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>10021</v>
       </c>
@@ -11129,7 +11189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>10022</v>
       </c>
@@ -11143,7 +11203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>10023</v>
       </c>
@@ -11157,7 +11217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>10024</v>
       </c>
@@ -11171,7 +11231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>10025</v>
       </c>
@@ -11185,7 +11245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>10026</v>
       </c>
@@ -11199,7 +11259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>10027</v>
       </c>
@@ -11213,7 +11273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>10028</v>
       </c>
@@ -11227,7 +11287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>10029</v>
       </c>
@@ -11241,7 +11301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>10030</v>
       </c>
@@ -11255,7 +11315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>10031</v>
       </c>
@@ -11269,7 +11329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>10032</v>
       </c>
@@ -11283,7 +11343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>10033</v>
       </c>
@@ -11297,7 +11357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>10034</v>
       </c>
@@ -11311,7 +11371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>10035</v>
       </c>
@@ -11325,7 +11385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>10036</v>
       </c>
@@ -11339,7 +11399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>10037</v>
       </c>
@@ -11353,7 +11413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>10038</v>
       </c>
@@ -11367,7 +11427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>10039</v>
       </c>
@@ -11381,7 +11441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>10040</v>
       </c>
@@ -11395,7 +11455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>10041</v>
       </c>
@@ -11409,7 +11469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>10042</v>
       </c>
@@ -11423,7 +11483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>10043</v>
       </c>
@@ -11437,7 +11497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>10044</v>
       </c>
@@ -11451,7 +11511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>10045</v>
       </c>
@@ -11465,7 +11525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>10046</v>
       </c>
@@ -11479,7 +11539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>10047</v>
       </c>
@@ -11493,7 +11553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>10048</v>
       </c>
@@ -11507,7 +11567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>10049</v>
       </c>
@@ -11521,7 +11581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>10050</v>
       </c>
@@ -11535,7 +11595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>10051</v>
       </c>
@@ -11549,7 +11609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>10052</v>
       </c>
@@ -11563,7 +11623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>10053</v>
       </c>
@@ -11577,7 +11637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>10054</v>
       </c>
@@ -11591,7 +11651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>10055</v>
       </c>
@@ -11605,7 +11665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>10056</v>
       </c>
@@ -11619,7 +11679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>10057</v>
       </c>
@@ -11633,7 +11693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>10058</v>
       </c>
@@ -11647,7 +11707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>10059</v>
       </c>
@@ -11661,7 +11721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>10060</v>
       </c>
@@ -11675,7 +11735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>10061</v>
       </c>
@@ -11689,7 +11749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>10062</v>
       </c>
@@ -11703,7 +11763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>10063</v>
       </c>
@@ -11717,7 +11777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>10064</v>
       </c>
@@ -11731,7 +11791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>10065</v>
       </c>
@@ -11745,7 +11805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>10066</v>
       </c>
@@ -11759,7 +11819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>10067</v>
       </c>
@@ -11773,7 +11833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>10068</v>
       </c>
@@ -11787,7 +11847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>10069</v>
       </c>
@@ -11801,7 +11861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>10070</v>
       </c>
@@ -11815,7 +11875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>10071</v>
       </c>
@@ -11829,7 +11889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>10072</v>
       </c>
@@ -11843,7 +11903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
         <v>10073</v>
       </c>
@@ -11857,7 +11917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>10074</v>
       </c>
@@ -11871,7 +11931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>10075</v>
       </c>
@@ -11885,7 +11945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
         <v>10076</v>
       </c>
@@ -11899,7 +11959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>10077</v>
       </c>
@@ -11913,7 +11973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>10078</v>
       </c>
@@ -11927,7 +11987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>10079</v>
       </c>
@@ -11941,7 +12001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A582" s="1">
         <v>10080</v>
       </c>
@@ -11955,7 +12015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>10081</v>
       </c>
@@ -11969,7 +12029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>10082</v>
       </c>
@@ -11983,7 +12043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>10083</v>
       </c>
@@ -11997,7 +12057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>10084</v>
       </c>
@@ -12011,7 +12071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>10085</v>
       </c>
@@ -12025,7 +12085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>10086</v>
       </c>
@@ -12039,7 +12099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A589" s="1">
         <v>10087</v>
       </c>
@@ -12053,7 +12113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A590" s="1">
         <v>10088</v>
       </c>
@@ -12067,7 +12127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A591" s="1">
         <v>10089</v>
       </c>
@@ -12081,7 +12141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A592" s="1">
         <v>10090</v>
       </c>
@@ -12095,7 +12155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A593" s="1">
         <v>10091</v>
       </c>
@@ -12109,7 +12169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A594" s="1">
         <v>10092</v>
       </c>
@@ -12123,7 +12183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A595" s="1">
         <v>10093</v>
       </c>
@@ -12137,7 +12197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A596" s="1">
         <v>10094</v>
       </c>
@@ -12151,7 +12211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A597" s="1">
         <v>10095</v>
       </c>
@@ -12165,7 +12225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A598" s="1">
         <v>10096</v>
       </c>
@@ -12179,7 +12239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A599" s="1">
         <v>10097</v>
       </c>
@@ -12193,7 +12253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A600" s="1">
         <v>10098</v>
       </c>
@@ -12207,7 +12267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A601" s="1">
         <v>10099</v>
       </c>
@@ -12221,7 +12281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A602" s="1">
         <v>10100</v>
       </c>
@@ -12235,7 +12295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A603" s="1">
         <v>10101</v>
       </c>
@@ -12249,7 +12309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A604" s="1">
         <v>10102</v>
       </c>
@@ -12263,7 +12323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A605" s="1">
         <v>10103</v>
       </c>
@@ -12277,7 +12337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A606" s="1">
         <v>10104</v>
       </c>
@@ -12291,7 +12351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A607" s="1">
         <v>10105</v>
       </c>
@@ -12305,7 +12365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A608" s="1">
         <v>10106</v>
       </c>
@@ -12319,7 +12379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A609" s="1">
         <v>10107</v>
       </c>
@@ -12333,7 +12393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A610" s="1">
         <v>10108</v>
       </c>
@@ -12347,7 +12407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A611" s="1">
         <v>10109</v>
       </c>
@@ -12361,7 +12421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A612" s="1">
         <v>10110</v>
       </c>
@@ -12375,7 +12435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A613" s="1">
         <v>10111</v>
       </c>
@@ -12389,7 +12449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A614" s="1">
         <v>10112</v>
       </c>
@@ -12403,7 +12463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A615" s="1">
         <v>10113</v>
       </c>
@@ -12417,7 +12477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A616" s="1">
         <v>10114</v>
       </c>
@@ -12431,7 +12491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A617" s="1">
         <v>10115</v>
       </c>
@@ -12445,7 +12505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A618" s="1">
         <v>10116</v>
       </c>
@@ -12459,7 +12519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A619" s="1">
         <v>10117</v>
       </c>
@@ -12473,7 +12533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A620" s="1">
         <v>10118</v>
       </c>
@@ -12487,7 +12547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A621" s="1">
         <v>10119</v>
       </c>
@@ -12501,7 +12561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A622" s="1">
         <v>10120</v>
       </c>
@@ -12515,7 +12575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A623" s="1">
         <v>10121</v>
       </c>
@@ -12529,7 +12589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A624" s="1">
         <v>10122</v>
       </c>
@@ -12543,7 +12603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A625" s="1">
         <v>10123</v>
       </c>
@@ -12557,7 +12617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A626" s="1">
         <v>10124</v>
       </c>
@@ -12571,7 +12631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A627" s="1">
         <v>10125</v>
       </c>
@@ -12585,7 +12645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A628" s="1">
         <v>10126</v>
       </c>
@@ -12599,7 +12659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A629" s="1">
         <v>10127</v>
       </c>
@@ -12613,7 +12673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A630" s="1">
         <v>10128</v>
       </c>
@@ -12627,7 +12687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631" s="1">
         <v>10129</v>
       </c>
@@ -12641,7 +12701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A632" s="1">
         <v>10130</v>
       </c>
@@ -12655,7 +12715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A633" s="1">
         <v>10131</v>
       </c>
@@ -12669,7 +12729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A634" s="1">
         <v>10132</v>
       </c>
@@ -12683,7 +12743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A635" s="1">
         <v>10133</v>
       </c>
@@ -12697,7 +12757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A636" s="1">
         <v>10134</v>
       </c>
@@ -12711,7 +12771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A637" s="1">
         <v>10135</v>
       </c>
@@ -12725,7 +12785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A638" s="1">
         <v>10136</v>
       </c>
@@ -12739,7 +12799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A639" s="1">
         <v>10137</v>
       </c>
@@ -12753,7 +12813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A640" s="1">
         <v>10138</v>
       </c>
@@ -12767,7 +12827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A641" s="1">
         <v>10139</v>
       </c>
@@ -12781,7 +12841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A642" s="1">
         <v>10140</v>
       </c>
@@ -12795,7 +12855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A643" s="1">
         <v>10141</v>
       </c>
@@ -12809,7 +12869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A644" s="1">
         <v>10142</v>
       </c>
@@ -12823,7 +12883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A645" s="1">
         <v>10143</v>
       </c>
@@ -12837,7 +12897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A646" s="1">
         <v>10144</v>
       </c>
@@ -12851,7 +12911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A647" s="1">
         <v>10145</v>
       </c>
@@ -12865,7 +12925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A648" s="1">
         <v>10146</v>
       </c>
@@ -12879,7 +12939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A649" s="1">
         <v>10147</v>
       </c>
@@ -12893,7 +12953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A650" s="1">
         <v>10148</v>
       </c>
@@ -12907,7 +12967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A651" s="1">
         <v>10149</v>
       </c>
@@ -12921,7 +12981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A652" s="1">
         <v>10150</v>
       </c>
@@ -12935,7 +12995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A653" s="1">
         <v>10151</v>
       </c>
@@ -12949,7 +13009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A654" s="1">
         <v>10152</v>
       </c>
@@ -12963,7 +13023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A655" s="1">
         <v>10153</v>
       </c>
@@ -12977,7 +13037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A656" s="1">
         <v>10154</v>
       </c>
@@ -12991,7 +13051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A657" s="1">
         <v>10155</v>
       </c>
@@ -13005,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A658" s="1">
         <v>10156</v>
       </c>
@@ -13019,7 +13079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A659" s="1">
         <v>10157</v>
       </c>
@@ -13033,7 +13093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A660" s="1">
         <v>10158</v>
       </c>
@@ -13047,7 +13107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A661" s="1">
         <v>10159</v>
       </c>
@@ -13061,7 +13121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A662" s="1">
         <v>10160</v>
       </c>
@@ -13075,7 +13135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A663" s="1">
         <v>10161</v>
       </c>
@@ -13089,7 +13149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A664" s="1">
         <v>10162</v>
       </c>
@@ -13103,7 +13163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A665" s="1">
         <v>10163</v>
       </c>
@@ -13117,7 +13177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A666" s="1">
         <v>10164</v>
       </c>
@@ -13131,7 +13191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A667" s="1">
         <v>10165</v>
       </c>
@@ -13145,7 +13205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A668" s="1">
         <v>10166</v>
       </c>
@@ -13159,7 +13219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A669" s="1">
         <v>10167</v>
       </c>
@@ -13173,7 +13233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A670" s="1">
         <v>10168</v>
       </c>
@@ -13187,7 +13247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A671" s="1">
         <v>10169</v>
       </c>
@@ -13201,7 +13261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:4">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A672" s="1">
         <v>10170</v>
       </c>
@@ -13215,7 +13275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A673" s="1">
         <v>10171</v>
       </c>
@@ -13229,7 +13289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A674" s="1">
         <v>10172</v>
       </c>
@@ -13243,7 +13303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A675" s="1">
         <v>10173</v>
       </c>
@@ -13257,7 +13317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A676" s="1">
         <v>10174</v>
       </c>
@@ -13271,7 +13331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A677" s="1">
         <v>10175</v>
       </c>
@@ -13285,7 +13345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A678" s="1">
         <v>10176</v>
       </c>
@@ -13299,7 +13359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A679" s="1">
         <v>10177</v>
       </c>
@@ -13313,7 +13373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A680" s="1">
         <v>10178</v>
       </c>
@@ -13327,7 +13387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A681" s="1">
         <v>10179</v>
       </c>
@@ -13341,7 +13401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A682" s="1">
         <v>10180</v>
       </c>
@@ -13355,7 +13415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A683" s="1">
         <v>10181</v>
       </c>
@@ -13369,7 +13429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A684" s="1">
         <v>10182</v>
       </c>
@@ -13383,7 +13443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A685" s="1">
         <v>10183</v>
       </c>
@@ -13397,7 +13457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A686" s="1">
         <v>10184</v>
       </c>
@@ -13411,7 +13471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A687" s="1">
         <v>10185</v>
       </c>
@@ -13425,7 +13485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A688" s="1">
         <v>10186</v>
       </c>
@@ -13439,7 +13499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A689" s="1">
         <v>10187</v>
       </c>
@@ -13453,7 +13513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A690" s="1">
         <v>10188</v>
       </c>
@@ -13467,7 +13527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A691" s="1">
         <v>10189</v>
       </c>
@@ -13481,7 +13541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A692" s="1">
         <v>10190</v>
       </c>
@@ -13495,7 +13555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A693" s="1">
         <v>10191</v>
       </c>
@@ -13509,7 +13569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="694" spans="1:4">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A694" s="1">
         <v>10192</v>
       </c>
@@ -13523,7 +13583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A695" s="1">
         <v>10193</v>
       </c>
@@ -13537,7 +13597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A696" s="1">
         <v>10194</v>
       </c>
@@ -13551,7 +13611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A697" s="1">
         <v>10195</v>
       </c>
@@ -13565,7 +13625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A698" s="1">
         <v>10196</v>
       </c>
@@ -13579,7 +13639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A699" s="1">
         <v>10197</v>
       </c>
@@ -13593,7 +13653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A700" s="1">
         <v>10198</v>
       </c>
@@ -13607,7 +13667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A701" s="1">
         <v>10199</v>
       </c>
@@ -13621,7 +13681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:4">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A702" s="1">
         <v>10200</v>
       </c>
@@ -13635,7 +13695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A703" s="1">
         <v>10201</v>
       </c>
@@ -13649,7 +13709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:4">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A704" s="1">
         <v>10202</v>
       </c>
@@ -13663,7 +13723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:4">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A705" s="1">
         <v>10203</v>
       </c>
@@ -13677,7 +13737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="706" spans="1:4">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A706" s="1">
         <v>10204</v>
       </c>
@@ -13691,7 +13751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="707" spans="1:4">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A707" s="1">
         <v>10205</v>
       </c>
@@ -13705,7 +13765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="708" spans="1:4">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A708" s="1">
         <v>10206</v>
       </c>
@@ -13719,7 +13779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A709" s="1">
         <v>10207</v>
       </c>
@@ -13733,7 +13793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="710" spans="1:4">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A710" s="1">
         <v>10208</v>
       </c>
@@ -13747,7 +13807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:4">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A711" s="1">
         <v>10209</v>
       </c>
@@ -13761,7 +13821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A712" s="1">
         <v>10210</v>
       </c>
@@ -13775,7 +13835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:4">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A713" s="1">
         <v>10211</v>
       </c>
@@ -13789,7 +13849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="714" spans="1:4">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A714" s="1">
         <v>10212</v>
       </c>
@@ -13803,7 +13863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A715" s="1">
         <v>10213</v>
       </c>
@@ -13817,7 +13877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A716" s="1">
         <v>10214</v>
       </c>
@@ -13831,7 +13891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A717" s="1">
         <v>10215</v>
       </c>
@@ -13845,7 +13905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A718" s="1">
         <v>10216</v>
       </c>
@@ -13859,7 +13919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="719" spans="1:4">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A719" s="1">
         <v>10217</v>
       </c>
@@ -13873,7 +13933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:4">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A720" s="1">
         <v>10218</v>
       </c>
@@ -13887,7 +13947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:4">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A721" s="1">
         <v>10219</v>
       </c>
@@ -13901,7 +13961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A722" s="1">
         <v>10220</v>
       </c>
@@ -13915,7 +13975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A723" s="1">
         <v>10221</v>
       </c>
@@ -13929,7 +13989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A724" s="1">
         <v>10222</v>
       </c>
@@ -13943,7 +14003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A725" s="1">
         <v>10223</v>
       </c>
@@ -13957,7 +14017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A726" s="1">
         <v>10224</v>
       </c>
@@ -13971,7 +14031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A727" s="1">
         <v>10225</v>
       </c>
@@ -13985,7 +14045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A728" s="1">
         <v>10226</v>
       </c>
@@ -13999,7 +14059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A729" s="1">
         <v>10227</v>
       </c>
@@ -14013,7 +14073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:4">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A730" s="1">
         <v>10228</v>
       </c>
@@ -14027,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A731" s="1">
         <v>10229</v>
       </c>
@@ -14041,7 +14101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A732" s="1">
         <v>10230</v>
       </c>
@@ -14055,7 +14115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A733" s="1">
         <v>10231</v>
       </c>
@@ -14069,7 +14129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="734" spans="1:4">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A734" s="1">
         <v>10232</v>
       </c>
@@ -14083,7 +14143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A735" s="1">
         <v>10233</v>
       </c>
@@ -14097,7 +14157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:4">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A736" s="1">
         <v>10234</v>
       </c>
@@ -14111,7 +14171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A737" s="1">
         <v>10235</v>
       </c>
@@ -14125,7 +14185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:4">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A738" s="1">
         <v>10236</v>
       </c>
@@ -14139,7 +14199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="739" spans="1:4">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A739" s="1">
         <v>10237</v>
       </c>
@@ -14153,7 +14213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:4">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A740" s="1">
         <v>10238</v>
       </c>
@@ -14167,7 +14227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:4">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A741" s="1">
         <v>10239</v>
       </c>
@@ -14181,7 +14241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:4">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A742" s="1">
         <v>10240</v>
       </c>
@@ -14195,7 +14255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:4">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A743" s="1">
         <v>10241</v>
       </c>
@@ -14209,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:4">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A744" s="1">
         <v>10242</v>
       </c>
@@ -14223,7 +14283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:4">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A745" s="1">
         <v>10243</v>
       </c>
@@ -14237,7 +14297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:4">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A746" s="1">
         <v>10244</v>
       </c>
@@ -14251,7 +14311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:4">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A747" s="1">
         <v>10245</v>
       </c>
@@ -14265,7 +14325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="748" spans="1:4">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A748" s="1">
         <v>10246</v>
       </c>
@@ -14279,7 +14339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:4">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A749" s="1">
         <v>10247</v>
       </c>
@@ -14293,7 +14353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="750" spans="1:4">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A750" s="1">
         <v>10248</v>
       </c>
@@ -14307,7 +14367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="751" spans="1:4">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A751" s="1">
         <v>10249</v>
       </c>
@@ -14321,7 +14381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="752" spans="1:4">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A752" s="1">
         <v>10250</v>
       </c>
@@ -14335,7 +14395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A753" s="1">
         <v>10251</v>
       </c>
@@ -14349,7 +14409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A754" s="1">
         <v>10252</v>
       </c>
@@ -14363,7 +14423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A755" s="1">
         <v>10253</v>
       </c>
@@ -14377,7 +14437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="756" spans="1:4">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A756" s="1">
         <v>10254</v>
       </c>
@@ -14391,7 +14451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="757" spans="1:4">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A757" s="1">
         <v>10255</v>
       </c>
@@ -14405,7 +14465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="758" spans="1:4">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A758" s="1">
         <v>10256</v>
       </c>
@@ -14419,7 +14479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:4">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A759" s="1">
         <v>10257</v>
       </c>
@@ -14433,7 +14493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:4">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A760" s="1">
         <v>10258</v>
       </c>
@@ -14447,7 +14507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="761" spans="1:4">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A761" s="1">
         <v>10259</v>
       </c>
@@ -14461,7 +14521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:4">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A762" s="1">
         <v>10260</v>
       </c>
@@ -14475,7 +14535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="763" spans="1:4">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A763" s="1">
         <v>10261</v>
       </c>
@@ -14489,7 +14549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="764" spans="1:4">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A764" s="1">
         <v>10262</v>
       </c>
@@ -14503,7 +14563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:4">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A765" s="1">
         <v>10263</v>
       </c>
@@ -14517,7 +14577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="766" spans="1:4">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A766" s="1">
         <v>10264</v>
       </c>
@@ -14531,7 +14591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="767" spans="1:4">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A767" s="1">
         <v>10265</v>
       </c>
@@ -14545,7 +14605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A768" s="1">
         <v>10266</v>
       </c>
@@ -14559,7 +14619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A769" s="1">
         <v>10267</v>
       </c>
@@ -14573,7 +14633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:4">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A770" s="1">
         <v>10268</v>
       </c>
@@ -14587,7 +14647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A771" s="1">
         <v>10269</v>
       </c>
@@ -14601,7 +14661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="772" spans="1:4">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A772" s="1">
         <v>10270</v>
       </c>
@@ -14615,7 +14675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:4">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A773" s="1">
         <v>10271</v>
       </c>
@@ -14629,7 +14689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:4">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A774" s="1">
         <v>10272</v>
       </c>
@@ -14643,7 +14703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:4">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A775" s="1">
         <v>10273</v>
       </c>
@@ -14657,7 +14717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="776" spans="1:4">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A776" s="1">
         <v>10274</v>
       </c>
@@ -14671,7 +14731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:4">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A777" s="1">
         <v>10275</v>
       </c>
@@ -14685,7 +14745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:4">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A778" s="1">
         <v>10276</v>
       </c>
@@ -14699,7 +14759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:4">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A779" s="1">
         <v>10277</v>
       </c>
@@ -14713,7 +14773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:4">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A780" s="1">
         <v>10278</v>
       </c>
@@ -14727,7 +14787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:4">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A781" s="1">
         <v>10279</v>
       </c>
@@ -14741,7 +14801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:4">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A782" s="1">
         <v>10280</v>
       </c>
@@ -14755,7 +14815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="783" spans="1:4">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A783" s="1">
         <v>10281</v>
       </c>
@@ -14769,7 +14829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:4">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A784" s="1">
         <v>10282</v>
       </c>
@@ -14783,7 +14843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:4">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A785" s="1">
         <v>10283</v>
       </c>
@@ -14797,7 +14857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="786" spans="1:4">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A786" s="1">
         <v>10284</v>
       </c>
@@ -14811,7 +14871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:4">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A787" s="1">
         <v>10285</v>
       </c>
@@ -14825,7 +14885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:4">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A788" s="1">
         <v>10286</v>
       </c>
@@ -14839,7 +14899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:4">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A789" s="1">
         <v>10287</v>
       </c>
@@ -14853,7 +14913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:4">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A790" s="1">
         <v>10288</v>
       </c>
@@ -14867,7 +14927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="791" spans="1:4">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A791" s="1">
         <v>10289</v>
       </c>
@@ -14881,7 +14941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="792" spans="1:4">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A792" s="1">
         <v>10290</v>
       </c>
@@ -14895,7 +14955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="793" spans="1:4">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A793" s="1">
         <v>10291</v>
       </c>
@@ -14909,7 +14969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:4">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A794" s="1">
         <v>10292</v>
       </c>
@@ -14923,7 +14983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:4">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A795" s="1">
         <v>10293</v>
       </c>
@@ -14937,7 +14997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="796" spans="1:4">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A796" s="1">
         <v>10294</v>
       </c>
@@ -14951,7 +15011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="797" spans="1:4">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A797" s="1">
         <v>10295</v>
       </c>
@@ -14965,7 +15025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:4">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A798" s="1">
         <v>10296</v>
       </c>
@@ -14979,7 +15039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:4">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A799" s="1">
         <v>10297</v>
       </c>
@@ -14993,7 +15053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="800" spans="1:4">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A800" s="1">
         <v>10298</v>
       </c>
@@ -15007,7 +15067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:4">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A801" s="1">
         <v>10299</v>
       </c>
@@ -15021,7 +15081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="802" spans="1:4">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A802" s="1">
         <v>10300</v>
       </c>
@@ -15035,7 +15095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="803" spans="1:4">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A803" s="1">
         <v>10301</v>
       </c>
@@ -15049,7 +15109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="804" spans="1:4">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A804" s="1">
         <v>10302</v>
       </c>
@@ -15063,7 +15123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="805" spans="1:4">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A805" s="1">
         <v>10303</v>
       </c>
@@ -15077,7 +15137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="806" spans="1:4">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A806" s="1">
         <v>10304</v>
       </c>
@@ -15091,7 +15151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="807" spans="1:4">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A807" s="1">
         <v>10305</v>
       </c>
@@ -15105,7 +15165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:4">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A808" s="1">
         <v>10306</v>
       </c>
@@ -15119,7 +15179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:4">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A809" s="1">
         <v>10307</v>
       </c>
@@ -15133,7 +15193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:4">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A810" s="1">
         <v>10308</v>
       </c>
@@ -15147,7 +15207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:4">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A811" s="1">
         <v>10309</v>
       </c>
@@ -15161,7 +15221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:4">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A812" s="1">
         <v>10310</v>
       </c>
@@ -15175,7 +15235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:4">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A813" s="1">
         <v>10311</v>
       </c>
@@ -15189,7 +15249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="814" spans="1:4">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A814" s="1">
         <v>10312</v>
       </c>
@@ -15203,7 +15263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="815" spans="1:4">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A815" s="1">
         <v>10313</v>
       </c>
@@ -15217,7 +15277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:4">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A816" s="1">
         <v>10314</v>
       </c>
@@ -15231,7 +15291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="817" spans="1:4">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A817" s="1">
         <v>10315</v>
       </c>
@@ -15245,7 +15305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:4">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A818" s="1">
         <v>10316</v>
       </c>
@@ -15259,7 +15319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="819" spans="1:4">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A819" s="1">
         <v>10317</v>
       </c>
@@ -15273,7 +15333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="820" spans="1:4">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A820" s="1">
         <v>10318</v>
       </c>
@@ -15287,7 +15347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="821" spans="1:4">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A821" s="1">
         <v>10319</v>
       </c>
@@ -15301,7 +15361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:4">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A822" s="1">
         <v>10320</v>
       </c>
@@ -15315,7 +15375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:4">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A823" s="1">
         <v>10321</v>
       </c>
@@ -15329,7 +15389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="824" spans="1:4">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A824" s="1">
         <v>10322</v>
       </c>
@@ -15343,7 +15403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="825" spans="1:4">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A825" s="1">
         <v>10323</v>
       </c>
@@ -15357,7 +15417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="826" spans="1:4">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A826" s="1">
         <v>10324</v>
       </c>
@@ -15371,7 +15431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:4">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A827" s="1">
         <v>10325</v>
       </c>
@@ -15385,7 +15445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="828" spans="1:4">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A828" s="1">
         <v>10326</v>
       </c>
@@ -15399,7 +15459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:4">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A829" s="1">
         <v>10327</v>
       </c>
@@ -15413,7 +15473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="830" spans="1:4">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A830" s="1">
         <v>10328</v>
       </c>
@@ -15427,7 +15487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:4">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A831" s="1">
         <v>10329</v>
       </c>
@@ -15441,7 +15501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:4">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A832" s="1">
         <v>10330</v>
       </c>
@@ -15455,7 +15515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:4">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A833" s="1">
         <v>10331</v>
       </c>
@@ -15469,7 +15529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:4">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A834" s="1">
         <v>10332</v>
       </c>
@@ -15483,7 +15543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:4">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A835" s="1">
         <v>10333</v>
       </c>
@@ -15497,7 +15557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="836" spans="1:4">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A836" s="1">
         <v>10334</v>
       </c>
@@ -15511,7 +15571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="837" spans="1:4">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A837" s="1">
         <v>10335</v>
       </c>
@@ -15525,7 +15585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="838" spans="1:4">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A838" s="1">
         <v>10336</v>
       </c>
@@ -15539,7 +15599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:4">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A839" s="1">
         <v>10337</v>
       </c>
@@ -15553,7 +15613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="840" spans="1:4">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A840" s="1">
         <v>10338</v>
       </c>
@@ -15567,7 +15627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="841" spans="1:4">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A841" s="1">
         <v>10339</v>
       </c>
@@ -15581,7 +15641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="842" spans="1:4">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A842" s="1">
         <v>10340</v>
       </c>
@@ -15595,7 +15655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:4">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A843" s="1">
         <v>10341</v>
       </c>
@@ -15609,7 +15669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="844" spans="1:4">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A844" s="1">
         <v>10342</v>
       </c>
@@ -15623,7 +15683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="845" spans="1:4">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A845" s="1">
         <v>10343</v>
       </c>
@@ -15637,7 +15697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:4">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A846" s="1">
         <v>10344</v>
       </c>
@@ -15651,7 +15711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:4">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A847" s="1">
         <v>10345</v>
       </c>
@@ -15665,7 +15725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:4">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A848" s="1">
         <v>10346</v>
       </c>
@@ -15679,7 +15739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="849" spans="1:4">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A849" s="1">
         <v>10347</v>
       </c>
@@ -15693,7 +15753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:4">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A850" s="1">
         <v>10348</v>
       </c>
@@ -15707,7 +15767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:4">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A851" s="1">
         <v>10349</v>
       </c>
@@ -15721,7 +15781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:4">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A852" s="1">
         <v>10350</v>
       </c>
@@ -15735,7 +15795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="853" spans="1:4">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A853" s="1">
         <v>10351</v>
       </c>
@@ -15749,7 +15809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:4">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A854" s="1">
         <v>10352</v>
       </c>
@@ -15763,7 +15823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="855" spans="1:4">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A855" s="1">
         <v>10353</v>
       </c>
@@ -15777,7 +15837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="856" spans="1:4">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A856" s="1">
         <v>10354</v>
       </c>
@@ -15791,7 +15851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="857" spans="1:4">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A857" s="1">
         <v>10355</v>
       </c>
@@ -15805,7 +15865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:4">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A858" s="1">
         <v>10356</v>
       </c>
@@ -15819,7 +15879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="859" spans="1:4">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A859" s="1">
         <v>10357</v>
       </c>
@@ -15833,7 +15893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="860" spans="1:4">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A860" s="1">
         <v>10358</v>
       </c>
@@ -15847,7 +15907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="861" spans="1:4">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A861" s="1">
         <v>10359</v>
       </c>
@@ -15861,7 +15921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:4">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A862" s="1">
         <v>10360</v>
       </c>
@@ -15875,7 +15935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="863" spans="1:4">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A863" s="1">
         <v>10361</v>
       </c>
@@ -15889,7 +15949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:4">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A864" s="1">
         <v>10362</v>
       </c>
@@ -15903,7 +15963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="865" spans="1:4">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A865" s="1">
         <v>10363</v>
       </c>
@@ -15917,7 +15977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="866" spans="1:4">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A866" s="1">
         <v>10364</v>
       </c>
@@ -15931,7 +15991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:4">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A867" s="1">
         <v>10365</v>
       </c>
@@ -15945,7 +16005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:4">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A868" s="1">
         <v>10366</v>
       </c>
@@ -15959,7 +16019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="869" spans="1:4">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A869" s="1">
         <v>10367</v>
       </c>
@@ -15973,7 +16033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="870" spans="1:4">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A870" s="1">
         <v>10368</v>
       </c>
@@ -15987,7 +16047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="871" spans="1:4">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A871" s="1">
         <v>10369</v>
       </c>
@@ -16001,7 +16061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="872" spans="1:4">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A872" s="1">
         <v>10370</v>
       </c>
@@ -16015,7 +16075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="873" spans="1:4">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A873" s="1">
         <v>10371</v>
       </c>
@@ -16029,7 +16089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="874" spans="1:4">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A874" s="1">
         <v>10372</v>
       </c>
@@ -16043,7 +16103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="875" spans="1:4">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A875" s="1">
         <v>10373</v>
       </c>
@@ -16057,7 +16117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="876" spans="1:4">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A876" s="1">
         <v>10374</v>
       </c>
@@ -16071,7 +16131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" spans="1:4">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A877" s="1">
         <v>10375</v>
       </c>
@@ -16085,7 +16145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:4">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A878" s="1">
         <v>10376</v>
       </c>
@@ -16099,7 +16159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:4">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A879" s="1">
         <v>10377</v>
       </c>
@@ -16113,7 +16173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="880" spans="1:4">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A880" s="1">
         <v>10378</v>
       </c>
@@ -16127,7 +16187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:4">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A881" s="1">
         <v>10379</v>
       </c>
@@ -16141,7 +16201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="882" spans="1:4">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A882" s="1">
         <v>10380</v>
       </c>
@@ -16155,7 +16215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:4">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A883" s="1">
         <v>10381</v>
       </c>
@@ -16169,7 +16229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:4">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A884" s="1">
         <v>10382</v>
       </c>
@@ -16183,7 +16243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:4">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A885" s="1">
         <v>10383</v>
       </c>
@@ -16197,7 +16257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="886" spans="1:4">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A886" s="1">
         <v>10384</v>
       </c>
@@ -16211,7 +16271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="887" spans="1:4">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A887" s="1">
         <v>10385</v>
       </c>
@@ -16225,7 +16285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:4">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A888" s="1">
         <v>10386</v>
       </c>
@@ -16239,7 +16299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="889" spans="1:4">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A889" s="1">
         <v>10387</v>
       </c>
@@ -16253,7 +16313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="890" spans="1:4">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A890" s="1">
         <v>10388</v>
       </c>
@@ -16267,7 +16327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="891" spans="1:4">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A891" s="1">
         <v>10389</v>
       </c>
@@ -16281,7 +16341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="892" spans="1:4">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A892" s="1">
         <v>10390</v>
       </c>
@@ -16295,7 +16355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:4">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A893" s="1">
         <v>10391</v>
       </c>
@@ -16309,7 +16369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="894" spans="1:4">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A894" s="1">
         <v>10392</v>
       </c>
@@ -16323,7 +16383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="895" spans="1:4">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A895" s="1">
         <v>10393</v>
       </c>
@@ -16337,7 +16397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:4">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A896" s="1">
         <v>10394</v>
       </c>
@@ -16351,7 +16411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="897" spans="1:4">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A897" s="1">
         <v>10395</v>
       </c>
@@ -16365,7 +16425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:4">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A898" s="1">
         <v>10396</v>
       </c>
@@ -16379,7 +16439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="899" spans="1:4">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A899" s="1">
         <v>10397</v>
       </c>
@@ -16393,7 +16453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="900" spans="1:4">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A900" s="1">
         <v>10398</v>
       </c>
@@ -16407,7 +16467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="901" spans="1:4">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A901" s="1">
         <v>10399</v>
       </c>
@@ -16421,7 +16481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="902" spans="1:4">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A902" s="1">
         <v>10400</v>
       </c>
@@ -16435,7 +16495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:4">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A903" s="1">
         <v>10401</v>
       </c>
@@ -16449,7 +16509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="904" spans="1:4">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A904" s="1">
         <v>10402</v>
       </c>
@@ -16463,7 +16523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="905" spans="1:4">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A905" s="1">
         <v>10403</v>
       </c>
@@ -16477,7 +16537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:4">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A906" s="1">
         <v>10404</v>
       </c>
@@ -16491,7 +16551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="907" spans="1:4">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A907" s="1">
         <v>10405</v>
       </c>
@@ -16505,7 +16565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:4">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A908" s="1">
         <v>10406</v>
       </c>
@@ -16519,7 +16579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="909" spans="1:4">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A909" s="1">
         <v>10407</v>
       </c>
@@ -16533,7 +16593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:4">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A910" s="1">
         <v>10408</v>
       </c>
@@ -16547,7 +16607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:4">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A911" s="1">
         <v>10409</v>
       </c>
@@ -16561,7 +16621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:4">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A912" s="1">
         <v>10410</v>
       </c>
@@ -16575,7 +16635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="913" spans="1:4">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A913" s="1">
         <v>10411</v>
       </c>
@@ -16589,7 +16649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:4">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A914" s="1">
         <v>10412</v>
       </c>
@@ -16603,7 +16663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="915" spans="1:4">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A915" s="1">
         <v>10413</v>
       </c>
@@ -16617,7 +16677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="916" spans="1:4">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A916" s="1">
         <v>10414</v>
       </c>
@@ -16631,7 +16691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="917" spans="1:4">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A917" s="1">
         <v>10415</v>
       </c>
@@ -16645,7 +16705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:4">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A918" s="1">
         <v>10416</v>
       </c>
@@ -16659,7 +16719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:4">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A919" s="1">
         <v>10417</v>
       </c>
@@ -16673,7 +16733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="920" spans="1:4">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A920" s="1">
         <v>10418</v>
       </c>
@@ -16687,7 +16747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="921" spans="1:4">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A921" s="1">
         <v>10419</v>
       </c>
@@ -16701,7 +16761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="922" spans="1:4">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A922" s="1">
         <v>10420</v>
       </c>
@@ -16715,7 +16775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:4">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A923" s="1">
         <v>10421</v>
       </c>
@@ -16729,7 +16789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:4">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A924" s="1">
         <v>10422</v>
       </c>
@@ -16743,7 +16803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:4">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A925" s="1">
         <v>10423</v>
       </c>
@@ -16757,7 +16817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="926" spans="1:4">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A926" s="1">
         <v>10424</v>
       </c>
@@ -16771,7 +16831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="927" spans="1:4">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A927" s="1">
         <v>10425</v>
       </c>
@@ -16785,7 +16845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:4">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A928" s="1">
         <v>10426</v>
       </c>
@@ -16799,7 +16859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="929" spans="1:4">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A929" s="1">
         <v>10427</v>
       </c>
@@ -16813,7 +16873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="930" spans="1:4">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A930" s="1">
         <v>10428</v>
       </c>
@@ -16827,7 +16887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:4">
+    <row r="931" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A931" s="1">
         <v>10429</v>
       </c>
@@ -16841,7 +16901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:4">
+    <row r="932" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A932" s="1">
         <v>10430</v>
       </c>
@@ -16855,7 +16915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="933" spans="1:4">
+    <row r="933" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A933" s="1">
         <v>10431</v>
       </c>
@@ -16869,7 +16929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:4">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A934" s="1">
         <v>10432</v>
       </c>
@@ -16883,7 +16943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:4">
+    <row r="935" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A935" s="1">
         <v>10433</v>
       </c>
@@ -16897,7 +16957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="936" spans="1:4">
+    <row r="936" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A936" s="1">
         <v>10434</v>
       </c>
@@ -16911,7 +16971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="937" spans="1:4">
+    <row r="937" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A937" s="1">
         <v>10435</v>
       </c>
@@ -16925,7 +16985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:4">
+    <row r="938" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A938" s="1">
         <v>10436</v>
       </c>
@@ -16939,7 +16999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="939" spans="1:4">
+    <row r="939" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A939" s="1">
         <v>10437</v>
       </c>
@@ -16953,7 +17013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:4">
+    <row r="940" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A940" s="1">
         <v>10438</v>
       </c>
@@ -16967,7 +17027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="941" spans="1:4">
+    <row r="941" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A941" s="1">
         <v>10439</v>
       </c>
@@ -16981,7 +17041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:4">
+    <row r="942" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A942" s="1">
         <v>10440</v>
       </c>
@@ -16995,7 +17055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="943" spans="1:4">
+    <row r="943" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A943" s="1">
         <v>10441</v>
       </c>
@@ -17009,7 +17069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:4">
+    <row r="944" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A944" s="1">
         <v>10442</v>
       </c>
@@ -17023,7 +17083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:4">
+    <row r="945" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A945" s="1">
         <v>10443</v>
       </c>
@@ -17037,7 +17097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:4">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A946" s="1">
         <v>10444</v>
       </c>
@@ -17051,7 +17111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:4">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A947" s="1">
         <v>10445</v>
       </c>
@@ -17065,7 +17125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:4">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A948" s="1">
         <v>10446</v>
       </c>
@@ -17079,7 +17139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:4">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A949" s="1">
         <v>10447</v>
       </c>
@@ -17093,7 +17153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="950" spans="1:4">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A950" s="1">
         <v>10448</v>
       </c>
@@ -17107,7 +17167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="951" spans="1:4">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A951" s="1">
         <v>10449</v>
       </c>
@@ -17121,7 +17181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="952" spans="1:4">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A952" s="1">
         <v>10450</v>
       </c>
@@ -17135,7 +17195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:4">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A953" s="1">
         <v>10451</v>
       </c>
@@ -17149,7 +17209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:4">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A954" s="1">
         <v>10452</v>
       </c>
@@ -17163,7 +17223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:4">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A955" s="1">
         <v>10453</v>
       </c>
@@ -17177,7 +17237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="956" spans="1:4">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A956" s="1">
         <v>10454</v>
       </c>
@@ -17191,7 +17251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="957" spans="1:4">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A957" s="1">
         <v>10455</v>
       </c>
@@ -17205,7 +17265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="958" spans="1:4">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A958" s="1">
         <v>10456</v>
       </c>
@@ -17219,7 +17279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:4">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A959" s="1">
         <v>10457</v>
       </c>
@@ -17233,7 +17293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="960" spans="1:4">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A960" s="1">
         <v>10458</v>
       </c>
@@ -17247,7 +17307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:4">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A961" s="1">
         <v>10459</v>
       </c>
@@ -17261,7 +17321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="962" spans="1:4">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A962" s="1">
         <v>10460</v>
       </c>
@@ -17275,7 +17335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="963" spans="1:4">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A963" s="1">
         <v>10461</v>
       </c>
@@ -17289,7 +17349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:4">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A964" s="1">
         <v>10462</v>
       </c>
@@ -17303,7 +17363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:4">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A965" s="1">
         <v>10463</v>
       </c>
@@ -17317,7 +17377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:4">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A966" s="1">
         <v>10464</v>
       </c>
@@ -17331,7 +17391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:4">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A967" s="1">
         <v>10465</v>
       </c>
@@ -17345,7 +17405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="968" spans="1:4">
+    <row r="968" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A968" s="1">
         <v>10466</v>
       </c>
@@ -17359,7 +17419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="969" spans="1:4">
+    <row r="969" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A969" s="1">
         <v>10467</v>
       </c>
@@ -17373,7 +17433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:4">
+    <row r="970" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A970" s="1">
         <v>10468</v>
       </c>
@@ -17387,7 +17447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="971" spans="1:4">
+    <row r="971" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A971" s="1">
         <v>10469</v>
       </c>
@@ -17401,7 +17461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="972" spans="1:4">
+    <row r="972" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A972" s="1">
         <v>10470</v>
       </c>
@@ -17415,7 +17475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:4">
+    <row r="973" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A973" s="1">
         <v>10471</v>
       </c>
@@ -17429,7 +17489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="974" spans="1:4">
+    <row r="974" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A974" s="1">
         <v>10472</v>
       </c>
@@ -17443,7 +17503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:4">
+    <row r="975" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A975" s="1">
         <v>10473</v>
       </c>
@@ -17457,7 +17517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="976" spans="1:4">
+    <row r="976" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A976" s="1">
         <v>10474</v>
       </c>
@@ -17471,7 +17531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:4">
+    <row r="977" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A977" s="1">
         <v>10475</v>
       </c>
@@ -17485,7 +17545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:4">
+    <row r="978" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A978" s="1">
         <v>10476</v>
       </c>
@@ -17499,7 +17559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="979" spans="1:4">
+    <row r="979" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A979" s="1">
         <v>10477</v>
       </c>
@@ -17513,7 +17573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:4">
+    <row r="980" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A980" s="1">
         <v>10478</v>
       </c>
@@ -17527,7 +17587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:4">
+    <row r="981" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A981" s="1">
         <v>10479</v>
       </c>
@@ -17541,7 +17601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="982" spans="1:4">
+    <row r="982" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A982" s="1">
         <v>10480</v>
       </c>
@@ -17555,7 +17615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="983" spans="1:4">
+    <row r="983" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A983" s="1">
         <v>10481</v>
       </c>
@@ -17569,7 +17629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="984" spans="1:4">
+    <row r="984" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A984" s="1">
         <v>10482</v>
       </c>
@@ -17583,7 +17643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="985" spans="1:4">
+    <row r="985" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A985" s="1">
         <v>10483</v>
       </c>
@@ -17597,7 +17657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="986" spans="1:4">
+    <row r="986" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A986" s="1">
         <v>10484</v>
       </c>
@@ -17611,7 +17671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:4">
+    <row r="987" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A987" s="1">
         <v>10485</v>
       </c>
@@ -17625,7 +17685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:4">
+    <row r="988" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A988" s="1">
         <v>10486</v>
       </c>
@@ -17639,7 +17699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:4">
+    <row r="989" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A989" s="1">
         <v>10487</v>
       </c>
@@ -17653,7 +17713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="990" spans="1:4">
+    <row r="990" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A990" s="1">
         <v>10488</v>
       </c>
@@ -17667,7 +17727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="991" spans="1:4">
+    <row r="991" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A991" s="1">
         <v>10489</v>
       </c>
@@ -17681,7 +17741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="992" spans="1:4">
+    <row r="992" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A992" s="1">
         <v>10490</v>
       </c>
@@ -17695,7 +17755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="993" spans="1:4">
+    <row r="993" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A993" s="1">
         <v>10491</v>
       </c>
@@ -17709,7 +17769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="994" spans="1:4">
+    <row r="994" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A994" s="1">
         <v>10492</v>
       </c>
@@ -17723,7 +17783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:4">
+    <row r="995" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A995" s="1">
         <v>10493</v>
       </c>
@@ -17737,7 +17797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:4">
+    <row r="996" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A996" s="1">
         <v>10494</v>
       </c>
@@ -17751,7 +17811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:4">
+    <row r="997" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A997" s="1">
         <v>10495</v>
       </c>
@@ -17765,7 +17825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:4">
+    <row r="998" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A998" s="1">
         <v>10496</v>
       </c>
@@ -17779,7 +17839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="999" spans="1:4">
+    <row r="999" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A999" s="1">
         <v>10497</v>
       </c>
@@ -17793,7 +17853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:4">
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1000" s="1">
         <v>10498</v>
       </c>
@@ -17807,7 +17867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1001" spans="1:4">
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1001" s="1">
         <v>10499</v>
       </c>
